--- a/env/students.xlsx
+++ b/env/students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Documents\Capstone\Capstone_Design_Project\env\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016D9570-0320-4CE5-B370-B2D72982FB6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A1C1A3-0E7A-4D80-A4FD-A1653CF3514D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11530" uniqueCount="1574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11540" uniqueCount="1583">
   <si>
     <t>Leica</t>
   </si>
@@ -4767,13 +4767,40 @@
   </si>
   <si>
     <t>Cardiovascular in mice</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Muthyala</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiong </t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>rahul@gmail.com</t>
+  </si>
+  <si>
+    <t>billy@gmail.com</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4848,6 +4875,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -5007,10 +5040,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5211,6 +5245,9 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5220,8 +5257,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5537,3405 +5578,3509 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI40"/>
+  <dimension ref="A1:AK40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.54296875" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" customWidth="1"/>
-    <col min="18" max="18" width="14.453125" customWidth="1"/>
-    <col min="24" max="24" width="9.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="74" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+    <col min="20" max="20" width="14.453125" customWidth="1"/>
+    <col min="26" max="26" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="26" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-    </row>
-    <row r="2" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+    </row>
+    <row r="2" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="P2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="U2" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Y2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="P3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="U3" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="Y3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="P4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="U4" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Y4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="P5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="U5" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="Y5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="AD5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AG5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="P6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="U6" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="V6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Y6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AF6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="P7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Y7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="AB7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AD7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AE7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AF7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AG7" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="P8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="T8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="Y8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AB8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AD8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AE8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AG8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="P9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="U9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="AB9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AA9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AD9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC9" s="4" t="s">
+      <c r="AE9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AF9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AE9" s="4" t="s">
+      <c r="AG9" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="P10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="U10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Y10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AF10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AG10" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="K11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="P11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U11" s="4">
+      <c r="W11" s="4">
         <v>89</v>
       </c>
-      <c r="V11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="X11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="AA11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="AB11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AA11" s="4" t="s">
+      <c r="AC11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AB11" s="4" t="s">
+      <c r="AD11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AE11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AD11" s="4" t="s">
+      <c r="AF11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE11" s="4" t="s">
+      <c r="AG11" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="P12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="S12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="T12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="U12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U12" s="4">
+      <c r="W12" s="4">
         <v>89</v>
       </c>
-      <c r="V12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="X12" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z12" s="4" t="s">
+      <c r="AB12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AA12" s="4" t="s">
+      <c r="AC12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AB12" s="4" t="s">
+      <c r="AD12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AC12" s="4" t="s">
+      <c r="AE12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD12" s="4" t="s">
+      <c r="AF12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE12" s="4" t="s">
+      <c r="AG12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="P13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U13" s="4">
+      <c r="W13" s="4">
         <v>89</v>
       </c>
-      <c r="V13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W13" s="4" t="s">
+      <c r="X13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="Z13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="AA13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z13" s="4" t="s">
+      <c r="AB13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AA13" s="4" t="s">
+      <c r="AC13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AB13" s="4" t="s">
+      <c r="AD13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AC13" s="4" t="s">
+      <c r="AE13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AD13" s="4" t="s">
+      <c r="AF13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE13" s="4" t="s">
+      <c r="AG13" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="P14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="U14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="V14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="4">
+      <c r="W14" s="4">
         <v>89</v>
       </c>
-      <c r="V14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="4" t="s">
+      <c r="X14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="X14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="4" t="s">
+      <c r="Z14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z14" s="4" t="s">
+      <c r="AB14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AA14" s="4" t="s">
+      <c r="AC14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AB14" s="4" t="s">
+      <c r="AD14" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" s="4" t="s">
+      <c r="AE14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AF14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE14" s="4" t="s">
+      <c r="AG14" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="P15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="S15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T15" s="4">
+      <c r="U15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="4">
         <v>89</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W15" s="4" t="s">
+      <c r="X15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Z15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="AA15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Z15" s="4" t="s">
+      <c r="AB15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AA15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB15" s="4">
+      <c r="AC15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD15" s="4">
         <v>89</v>
       </c>
-      <c r="AC15" s="4" t="s">
+      <c r="AE15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AD15" s="4" t="s">
+      <c r="AF15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE15" s="4" t="s">
+      <c r="AG15" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="P16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" s="4" t="s">
+      <c r="S16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="S16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T16" s="4">
+      <c r="U16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="4">
         <v>89</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="W16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W16" s="4" t="s">
+      <c r="X16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="Z16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="AA16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Z16" s="4" t="s">
+      <c r="AB16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AA16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB16" s="4">
+      <c r="AC16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD16" s="4">
         <v>89</v>
       </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AE16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AF16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE16" s="4" t="s">
+      <c r="AG16" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="G17" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="P17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="S17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" s="4">
         <v>89</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="X17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="AA17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Z17" s="4" t="s">
+      <c r="AB17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AA17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB17" s="4">
+      <c r="AC17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD17" s="4">
         <v>89</v>
       </c>
-      <c r="AC17" s="4" t="s">
+      <c r="AE17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AD17" s="4" t="s">
+      <c r="AF17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE17" s="4" t="s">
+      <c r="AG17" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="P18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="S18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="T18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" s="4">
         <v>89</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="X18" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Y18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Z18" s="4" t="s">
+      <c r="AB18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AA18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB18" s="4">
+      <c r="AC18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD18" s="4">
         <v>89</v>
       </c>
-      <c r="AC18" s="4" t="s">
+      <c r="AE18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD18" s="4" t="s">
+      <c r="AF18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE18" s="4" t="s">
+      <c r="AG18" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="P19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" s="4" t="s">
+      <c r="S19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="S19" s="4">
+      <c r="U19" s="4">
         <v>89</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="V19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V19" s="4" t="s">
+      <c r="W19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="W19" s="4" t="s">
+      <c r="Y19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="Z19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AA19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AB19" s="4" t="s">
+      <c r="AD19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC19" s="4" t="s">
+      <c r="AE19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AD19" s="4" t="s">
+      <c r="AF19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE19" s="4" t="s">
+      <c r="AG19" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="P20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="S20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="T20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="S20" s="4">
+      <c r="U20" s="4">
         <v>89</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="V20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V20" s="4" t="s">
+      <c r="W20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="W20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4" t="s">
+      <c r="Y20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Y20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AA20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AB20" s="4" t="s">
+      <c r="AD20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC20" s="4" t="s">
+      <c r="AE20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AD20" s="4" t="s">
+      <c r="AF20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE20" s="4" t="s">
+      <c r="AG20" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="P21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="S21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="T21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="S21" s="4">
+      <c r="U21" s="4">
         <v>89</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="V21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V21" s="4" t="s">
+      <c r="W21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="W21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Y21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AB21" s="4" t="s">
+      <c r="AD21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC21" s="4" t="s">
+      <c r="AE21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AD21" s="4" t="s">
+      <c r="AF21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AE21" s="4" t="s">
+      <c r="AG21" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="P22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="S22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="T22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="S22" s="4">
+      <c r="U22" s="4">
         <v>89</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="V22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V22" s="4" t="s">
+      <c r="W22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="W22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4" t="s">
+      <c r="Y22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AA22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AB22" s="4" t="s">
+      <c r="AD22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD22" s="4" t="s">
+      <c r="AE22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE22" s="4" t="s">
+      <c r="AG22" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="P23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="S23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="U23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U23" s="4" t="s">
+      <c r="V23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="X23" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Z23" s="4" t="s">
+      <c r="AB23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA23" s="4" t="s">
+      <c r="AC23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AB23" s="4" t="s">
+      <c r="AD23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AC23" s="4" t="s">
+      <c r="AE23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AD23" s="4" t="s">
+      <c r="AF23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AE23" s="4" t="s">
+      <c r="AG23" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="P24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="S24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="T24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="U24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U24" s="4" t="s">
+      <c r="V24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="X24" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Z24" s="4" t="s">
+      <c r="AB24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA24" s="4" t="s">
+      <c r="AC24" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AB24" s="4" t="s">
+      <c r="AD24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AC24" s="4" t="s">
+      <c r="AE24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AD24" s="4" t="s">
+      <c r="AF24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AE24" s="4" t="s">
+      <c r="AG24" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="P25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="S25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="T25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="U25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U25" s="4" t="s">
+      <c r="V25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W25" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="X25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y25" s="4" t="s">
+      <c r="AA25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Z25" s="4" t="s">
+      <c r="AB25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA25" s="4" t="s">
+      <c r="AC25" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AB25" s="4" t="s">
+      <c r="AD25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AC25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD25" s="4" t="s">
+      <c r="AE25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE25" s="4" t="s">
+      <c r="AG25" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="P26" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="T26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S26" s="4" t="s">
+      <c r="U26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U26" s="4" t="s">
+      <c r="V26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W26" s="4" t="s">
+      <c r="X26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="Z26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y26" s="4" t="s">
+      <c r="AA26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Z26" s="4" t="s">
+      <c r="AB26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA26" s="4" t="s">
+      <c r="AC26" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AB26" s="4" t="s">
+      <c r="AD26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AC26" s="4" t="s">
+      <c r="AE26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AD26" s="4" t="s">
+      <c r="AF26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE26" s="4" t="s">
+      <c r="AG26" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="P27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="S27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="T27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S27" s="4" t="s">
+      <c r="U27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U27" s="4" t="s">
+      <c r="V27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W27" s="4" t="s">
+      <c r="X27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="X27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="4" t="s">
+      <c r="Z27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Z27" s="4" t="s">
+      <c r="AB27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA27" s="4" t="s">
+      <c r="AC27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AB27" s="4" t="s">
+      <c r="AD27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AC27" s="4" t="s">
+      <c r="AE27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AD27" s="4" t="s">
+      <c r="AF27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE27" s="4" t="s">
+      <c r="AG27" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="G28" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="N28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="P28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="S28" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="T28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="U28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U28" s="4" t="s">
+      <c r="V28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="X28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Y28" s="4" t="s">
+      <c r="AA28" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Z28" s="4" t="s">
+      <c r="AB28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA28" s="4" t="s">
+      <c r="AC28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AB28" s="4" t="s">
+      <c r="AD28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AC28" s="4" t="s">
+      <c r="AE28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AD28" s="4" t="s">
+      <c r="AF28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE28" s="4" t="s">
+      <c r="AG28" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="G29" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="N29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="P29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="S29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="T29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="U29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U29" s="4" t="s">
+      <c r="V29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="X29" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Y29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Z29" s="4" t="s">
+      <c r="AB29" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="AA29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB29" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="AC29" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AD29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE29" s="4" t="s">
+      <c r="AG29" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="G30" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="N30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="O30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="P30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="S30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="T30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="U30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U30" s="4" t="s">
+      <c r="V30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="X30" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Y30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Z30" s="4" t="s">
+      <c r="AB30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA30" s="4" t="s">
+      <c r="AC30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AB30" s="4" t="s">
+      <c r="AD30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AC30" s="4" t="s">
+      <c r="AE30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AD30" s="4" t="s">
+      <c r="AF30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AE30" s="4" t="s">
+      <c r="AG30" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G31" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="K31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="P31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="S31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="T31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V31" s="4">
+      <c r="W31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X31" s="4">
         <v>89</v>
       </c>
-      <c r="W31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X31" s="4" t="s">
+      <c r="Y31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y31" s="4" t="s">
+      <c r="AA31" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Z31" s="4" t="s">
+      <c r="AB31" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AA31" s="4">
+      <c r="AC31" s="4">
         <v>89</v>
       </c>
-      <c r="AB31" s="4" t="s">
+      <c r="AD31" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AC31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD31" s="4" t="s">
+      <c r="AE31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE31" s="4" t="s">
+      <c r="AG31" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="K32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="N32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="O32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="P32" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="T32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T32" s="4" t="s">
+      <c r="U32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V32" s="4">
+      <c r="W32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X32" s="4">
         <v>89</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="Y32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X32" s="4" t="s">
+      <c r="Z32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y32" s="4" t="s">
+      <c r="AA32" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Z32" s="4" t="s">
+      <c r="AB32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AA32" s="4">
+      <c r="AC32" s="4">
         <v>89</v>
       </c>
-      <c r="AB32" s="4" t="s">
+      <c r="AD32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AC32" s="4" t="s">
+      <c r="AE32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AD32" s="4" t="s">
+      <c r="AF32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE32" s="4" t="s">
+      <c r="AG32" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G33" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="N33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="P33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="S33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R33" s="4" t="s">
+      <c r="T33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="S33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T33" s="4" t="s">
+      <c r="U33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V33" s="4">
+      <c r="W33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X33" s="4">
         <v>89</v>
       </c>
-      <c r="W33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X33" s="4" t="s">
+      <c r="Y33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Y33" s="4" t="s">
+      <c r="AA33" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Z33" s="4" t="s">
+      <c r="AB33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AA33" s="4">
+      <c r="AC33" s="4">
         <v>89</v>
       </c>
-      <c r="AB33" s="4" t="s">
+      <c r="AD33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AC33" s="4" t="s">
+      <c r="AE33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AD33" s="4" t="s">
+      <c r="AF33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AE33" s="4" t="s">
+      <c r="AG33" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G34" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="N34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="P34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="S34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="T34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V34" s="4">
+      <c r="W34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X34" s="4">
         <v>89</v>
       </c>
-      <c r="W34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X34" s="4" t="s">
+      <c r="Y34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y34" s="4" t="s">
+      <c r="AA34" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Z34" s="4" t="s">
+      <c r="AB34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AA34" s="4">
+      <c r="AC34" s="4">
         <v>89</v>
       </c>
-      <c r="AB34" s="4" t="s">
+      <c r="AD34" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AC34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD34" s="4" t="s">
+      <c r="AE34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE34" s="4" t="s">
+      <c r="AG34" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G35" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="P35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R35" s="4" t="s">
+      <c r="S35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="S35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T35" s="4" t="s">
+      <c r="U35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V35" s="4">
+      <c r="W35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X35" s="4">
         <v>89</v>
       </c>
-      <c r="W35" s="4" t="s">
+      <c r="Y35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X35" s="4" t="s">
+      <c r="Z35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y35" s="4" t="s">
+      <c r="AA35" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Z35" s="4" t="s">
+      <c r="AB35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AA35" s="4">
+      <c r="AC35" s="4">
         <v>89</v>
       </c>
-      <c r="AB35" s="4" t="s">
+      <c r="AD35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AC35" s="4" t="s">
+      <c r="AE35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AD35" s="4" t="s">
+      <c r="AF35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE35" s="4" t="s">
+      <c r="AG35" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+    <row r="36" spans="1:33" ht="25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D36" s="78" t="s">
+        <v>1582</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
       <c r="AE36" s="4"/>
-    </row>
-    <row r="37" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+    </row>
+    <row r="37" spans="1:33" ht="25" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D37" s="78" t="s">
+        <v>1582</v>
+      </c>
       <c r="R37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
       <c r="AE37" s="4"/>
-    </row>
-    <row r="38" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+    </row>
+    <row r="38" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="R38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
       <c r="AE38" s="4"/>
-    </row>
-    <row r="39" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+    </row>
+    <row r="39" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="R39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
       <c r="AE39" s="4"/>
-    </row>
-    <row r="40" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+    </row>
+    <row r="40" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="R40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
       <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C36" r:id="rId1" xr:uid="{5B62F831-60A7-42AD-B803-C0675CADF048}"/>
+    <hyperlink ref="C37" r:id="rId2" xr:uid="{32DE5327-D808-4C79-8610-19F3D3E733EC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21018,19 +21163,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>1106</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>1107</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>

--- a/env/students.xlsx
+++ b/env/students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Documents\Capstone\Capstone_Design_Project\env\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A1C1A3-0E7A-4D80-A4FD-A1653CF3514D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC9EA4B-5C95-414D-94E9-B4D1288848A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11540" uniqueCount="1583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11570" uniqueCount="1581">
   <si>
     <t>Leica</t>
   </si>
@@ -4772,28 +4772,22 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Muthyala</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xiong </t>
-  </si>
-  <si>
-    <t>Billy</t>
-  </si>
-  <si>
-    <t>rahul@gmail.com</t>
-  </si>
-  <si>
-    <t>billy@gmail.com</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>password</t>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Ngeth</t>
+  </si>
+  <si>
+    <t>Wayhar</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -5044,7 +5038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5248,6 +5242,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5256,9 +5256,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5578,26 +5575,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AK40"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="A1:AH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.1796875" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="74" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" customWidth="1"/>
-    <col min="20" max="20" width="14.453125" customWidth="1"/>
-    <col min="26" max="26" width="9.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="75" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="74" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" customWidth="1"/>
+    <col min="21" max="21" width="14.453125" customWidth="1"/>
+    <col min="27" max="27" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
@@ -5608,101 +5606,104 @@
         <v>1574</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>1581</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="4"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="2"/>
       <c r="AK1" s="4"/>
-    </row>
-    <row r="2" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL1" s="4"/>
+    </row>
+    <row r="2" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -5711,95 +5712,98 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Q2" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="V2" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Z2" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AE2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
@@ -5808,95 +5812,98 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Q3" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="V3" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AE3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -5905,95 +5912,98 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Q4" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="U4" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="V4" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Z4" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AD4" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AE4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -6002,95 +6012,98 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Q5" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="U5" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="V5" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Z5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AD5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AD5" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AE5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AH5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -6099,95 +6112,98 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Q6" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="U6" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="V6" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y6" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Z6" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AD6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AE6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
@@ -6196,95 +6212,98 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Q7" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y7" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Z7" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AD7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AE7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AF7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="4" t="s">
+      <c r="AG7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AH7" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
@@ -6293,95 +6312,98 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Q8" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="T8" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="U8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y8" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Z8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AB8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AD8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AE8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AE8" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="AF8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AH8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>84</v>
       </c>
@@ -6390,95 +6412,98 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Q9" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="R9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="U9" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="V9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y9" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Z9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AA9" s="4" t="s">
+      <c r="AB9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AC9" s="4" t="s">
+      <c r="AD9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AE9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AE9" s="4" t="s">
+      <c r="AF9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AF9" s="4" t="s">
+      <c r="AG9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AG9" s="4" t="s">
+      <c r="AH9" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>92</v>
       </c>
@@ -6487,95 +6512,98 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Q10" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="R10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="V10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y10" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Z10" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AF10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AG10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AH10" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>95</v>
       </c>
@@ -6584,95 +6612,98 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="4">
         <v>89</v>
       </c>
-      <c r="X11" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="Y11" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Z11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AA11" s="4" t="s">
+      <c r="AB11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB11" s="4" t="s">
+      <c r="AC11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AD11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AD11" s="4" t="s">
+      <c r="AE11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AE11" s="4" t="s">
+      <c r="AF11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AF11" s="4" t="s">
+      <c r="AG11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AG11" s="4" t="s">
+      <c r="AH11" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>101</v>
       </c>
@@ -6681,95 +6712,98 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="Q12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="T12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="U12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="W12" s="4">
+      <c r="X12" s="4">
         <v>89</v>
       </c>
-      <c r="X12" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="Y12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB12" s="4" t="s">
+      <c r="AC12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AC12" s="4" t="s">
+      <c r="AD12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AD12" s="4" t="s">
+      <c r="AE12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AE12" s="4" t="s">
+      <c r="AF12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF12" s="4" t="s">
+      <c r="AG12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AG12" s="4" t="s">
+      <c r="AH12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>104</v>
       </c>
@@ -6778,95 +6812,98 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="Q13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="W13" s="4">
+      <c r="X13" s="4">
         <v>89</v>
       </c>
-      <c r="X13" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="Y13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Z13" s="4" t="s">
+      <c r="AA13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AA13" s="4" t="s">
+      <c r="AB13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB13" s="4" t="s">
+      <c r="AC13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AC13" s="4" t="s">
+      <c r="AD13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AD13" s="4" t="s">
+      <c r="AE13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AE13" s="4" t="s">
+      <c r="AF13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF13" s="4" t="s">
+      <c r="AG13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AG13" s="4" t="s">
+      <c r="AH13" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>107</v>
       </c>
@@ -6875,95 +6912,98 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="Q14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="U14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="V14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="W14" s="4">
+      <c r="X14" s="4">
         <v>89</v>
       </c>
-      <c r="X14" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="Y14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="Z14" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="AA14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB14" s="4" t="s">
+      <c r="AC14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AC14" s="4" t="s">
+      <c r="AD14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AE14" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AE14" s="4" t="s">
+      <c r="AF14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AF14" s="4" t="s">
+      <c r="AG14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AG14" s="4" t="s">
+      <c r="AH14" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>111</v>
       </c>
@@ -6972,95 +7012,98 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Q15" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="R15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="U15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="U15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V15" s="4">
+      <c r="V15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="4">
         <v>89</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X15" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Y15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Z15" s="4" t="s">
+      <c r="AA15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AA15" s="4" t="s">
+      <c r="AB15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AC15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AC15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD15" s="4">
+      <c r="AD15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE15" s="4">
         <v>89</v>
       </c>
-      <c r="AE15" s="4" t="s">
+      <c r="AF15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF15" s="4" t="s">
+      <c r="AG15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AG15" s="4" t="s">
+      <c r="AH15" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>116</v>
       </c>
@@ -7069,95 +7112,98 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Q16" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="R16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="S16" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="T16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V16" s="4">
+      <c r="V16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="4">
         <v>89</v>
       </c>
-      <c r="W16" s="4" t="s">
+      <c r="X16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X16" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Y16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Z16" s="4" t="s">
+      <c r="AA16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA16" s="4" t="s">
+      <c r="AB16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AC16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AC16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD16" s="4">
+      <c r="AD16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE16" s="4">
         <v>89</v>
       </c>
-      <c r="AE16" s="4" t="s">
+      <c r="AF16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF16" s="4" t="s">
+      <c r="AG16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AG16" s="4" t="s">
+      <c r="AH16" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>119</v>
       </c>
@@ -7166,95 +7212,98 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Q17" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="R17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="U17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V17" s="4">
+      <c r="V17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="4">
         <v>89</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="X17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Y17" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Z17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AA17" s="4" t="s">
+      <c r="AB17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AB17" s="4" t="s">
+      <c r="AC17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AC17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD17" s="4">
+      <c r="AD17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE17" s="4">
         <v>89</v>
       </c>
-      <c r="AE17" s="4" t="s">
+      <c r="AF17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AF17" s="4" t="s">
+      <c r="AG17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AG17" s="4" t="s">
+      <c r="AH17" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>122</v>
       </c>
@@ -7263,95 +7312,98 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="R18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="T18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="U18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V18" s="4">
+      <c r="V18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" s="4">
         <v>89</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="X18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X18" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Y18" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AB18" s="4" t="s">
+      <c r="AC18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AC18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD18" s="4">
+      <c r="AD18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE18" s="4">
         <v>89</v>
       </c>
-      <c r="AE18" s="4" t="s">
+      <c r="AF18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF18" s="4" t="s">
+      <c r="AG18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AG18" s="4" t="s">
+      <c r="AH18" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>124</v>
       </c>
@@ -7360,95 +7412,98 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Q19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="S19" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="T19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U19" s="4">
+      <c r="V19" s="4">
         <v>89</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="W19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W19" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="X19" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y19" s="4" t="s">
         <v>46</v>
       </c>
       <c r="Z19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA19" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AB19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="AC19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AD19" s="4" t="s">
+      <c r="AE19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AE19" s="4" t="s">
+      <c r="AF19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF19" s="4" t="s">
+      <c r="AG19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AG19" s="4" t="s">
+      <c r="AH19" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>127</v>
       </c>
@@ -7457,95 +7512,98 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P20" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Q20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="T20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="U20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="U20" s="4">
+      <c r="V20" s="4">
         <v>89</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W20" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="X20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Y20" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Z20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AA20" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AB20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="AC20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AD20" s="4" t="s">
+      <c r="AE20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AE20" s="4" t="s">
+      <c r="AF20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AF20" s="4" t="s">
+      <c r="AG20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AG20" s="4" t="s">
+      <c r="AH20" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>129</v>
       </c>
@@ -7554,95 +7612,98 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H21" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Q21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="T21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="U21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="U21" s="4">
+      <c r="V21" s="4">
         <v>89</v>
       </c>
-      <c r="V21" s="4" t="s">
+      <c r="W21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W21" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="X21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Y21" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Z21" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="AC21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AD21" s="4" t="s">
+      <c r="AE21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AE21" s="4" t="s">
+      <c r="AF21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF21" s="4" t="s">
+      <c r="AG21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AG21" s="4" t="s">
+      <c r="AH21" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>132</v>
       </c>
@@ -7651,95 +7712,98 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H22" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Q22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="T22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="U22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="U22" s="4">
+      <c r="V22" s="4">
         <v>89</v>
       </c>
-      <c r="V22" s="4" t="s">
+      <c r="W22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W22" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="X22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Y22" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Z22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA22" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AB22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="AC22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AD22" s="4" t="s">
+      <c r="AE22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AE22" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="AF22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AG22" s="4" t="s">
+      <c r="AH22" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>134</v>
       </c>
@@ -7748,95 +7812,98 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Q23" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="U23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="U23" s="4" t="s">
+      <c r="V23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V23" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="W23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X23" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Y23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AB23" s="4" t="s">
+      <c r="AC23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AC23" s="4" t="s">
+      <c r="AD23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AD23" s="4" t="s">
+      <c r="AE23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AE23" s="4" t="s">
+      <c r="AF23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF23" s="4" t="s">
+      <c r="AG23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AG23" s="4" t="s">
+      <c r="AH23" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>139</v>
       </c>
@@ -7845,95 +7912,98 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>38</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="T24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="U24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="U24" s="4" t="s">
+      <c r="V24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V24" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="W24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X24" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Y24" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AB24" s="4" t="s">
+      <c r="AC24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AC24" s="4" t="s">
+      <c r="AD24" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AD24" s="4" t="s">
+      <c r="AE24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AE24" s="4" t="s">
+      <c r="AF24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF24" s="4" t="s">
+      <c r="AG24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AG24" s="4" t="s">
+      <c r="AH24" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>141</v>
       </c>
@@ -7942,95 +8012,98 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="H25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Q25" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="T25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T25" s="4" t="s">
+      <c r="U25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="V25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V25" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="W25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X25" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Y25" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Z25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA25" s="4" t="s">
+      <c r="AB25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AB25" s="4" t="s">
+      <c r="AC25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AC25" s="4" t="s">
+      <c r="AD25" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AD25" s="4" t="s">
+      <c r="AE25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AE25" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="AF25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AG25" s="4" t="s">
+      <c r="AH25" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>143</v>
       </c>
@@ -8039,95 +8112,98 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Q26" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="S26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="U26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U26" s="4" t="s">
+      <c r="V26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V26" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="W26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X26" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Y26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Z26" s="4" t="s">
+      <c r="AA26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA26" s="4" t="s">
+      <c r="AB26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AB26" s="4" t="s">
+      <c r="AC26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AC26" s="4" t="s">
+      <c r="AD26" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AD26" s="4" t="s">
+      <c r="AE26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AE26" s="4" t="s">
+      <c r="AF26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF26" s="4" t="s">
+      <c r="AG26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AG26" s="4" t="s">
+      <c r="AH26" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>145</v>
       </c>
@@ -8136,95 +8212,98 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H27" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="P27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P27" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Q27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="S27" s="4" t="s">
+      <c r="T27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T27" s="4" t="s">
+      <c r="U27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="U27" s="4" t="s">
+      <c r="V27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V27" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="W27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X27" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Y27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="Z27" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="AA27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AB27" s="4" t="s">
+      <c r="AC27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC27" s="4" t="s">
+      <c r="AD27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD27" s="4" t="s">
+      <c r="AE27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AE27" s="4" t="s">
+      <c r="AF27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AF27" s="4" t="s">
+      <c r="AG27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AG27" s="4" t="s">
+      <c r="AH27" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>149</v>
       </c>
@@ -8233,95 +8312,98 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H28" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="P28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P28" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Q28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="T28" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="U28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U28" s="4" t="s">
+      <c r="V28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V28" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="W28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X28" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Y28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Z28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AA28" s="4" t="s">
+      <c r="AB28" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AB28" s="4" t="s">
+      <c r="AC28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC28" s="4" t="s">
+      <c r="AD28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD28" s="4" t="s">
+      <c r="AE28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AE28" s="4" t="s">
+      <c r="AF28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AF28" s="4" t="s">
+      <c r="AG28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AG28" s="4" t="s">
+      <c r="AH28" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>151</v>
       </c>
@@ -8330,95 +8412,98 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H29" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="T29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T29" s="4" t="s">
+      <c r="U29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U29" s="4" t="s">
+      <c r="V29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V29" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="W29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X29" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Y29" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AB29" s="4" t="s">
+      <c r="AC29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC29" s="4" t="s">
+      <c r="AD29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD29" s="4" t="s">
+      <c r="AE29" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AE29" s="4" t="s">
+      <c r="AF29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF29" s="4" t="s">
+      <c r="AG29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AG29" s="4" t="s">
+      <c r="AH29" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>153</v>
       </c>
@@ -8427,95 +8512,98 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H30" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="O30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="P30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P30" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Q30" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="T30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T30" s="4" t="s">
+      <c r="U30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="U30" s="4" t="s">
+      <c r="V30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V30" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="W30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X30" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Y30" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AB30" s="4" t="s">
+      <c r="AC30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC30" s="4" t="s">
+      <c r="AD30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD30" s="4" t="s">
+      <c r="AE30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AE30" s="4" t="s">
+      <c r="AF30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF30" s="4" t="s">
+      <c r="AG30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AG30" s="4" t="s">
+      <c r="AH30" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>155</v>
       </c>
@@ -8524,95 +8612,98 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="H31" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="Q31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S31" s="4" t="s">
+      <c r="T31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="T31" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="U31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X31" s="4">
+      <c r="X31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="4">
         <v>89</v>
       </c>
-      <c r="Y31" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Z31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA31" s="4" t="s">
+      <c r="AB31" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AB31" s="4" t="s">
+      <c r="AC31" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AC31" s="4">
+      <c r="AD31" s="4">
         <v>89</v>
       </c>
-      <c r="AD31" s="4" t="s">
+      <c r="AE31" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AE31" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="AF31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AG31" s="4" t="s">
+      <c r="AH31" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>159</v>
       </c>
@@ -8621,95 +8712,98 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="H32" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>38</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T32" s="4" t="s">
+      <c r="U32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U32" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="V32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X32" s="4">
+      <c r="X32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="4">
         <v>89</v>
       </c>
-      <c r="Y32" s="4" t="s">
+      <c r="Z32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Z32" s="4" t="s">
+      <c r="AA32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA32" s="4" t="s">
+      <c r="AB32" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AB32" s="4" t="s">
+      <c r="AC32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AC32" s="4">
+      <c r="AD32" s="4">
         <v>89</v>
       </c>
-      <c r="AD32" s="4" t="s">
+      <c r="AE32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AE32" s="4" t="s">
+      <c r="AF32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF32" s="4" t="s">
+      <c r="AG32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AG32" s="4" t="s">
+      <c r="AH32" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>161</v>
       </c>
@@ -8718,95 +8812,98 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="H33" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P33" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="Q33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="S33" s="4" t="s">
+      <c r="T33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="T33" s="4" t="s">
+      <c r="U33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="U33" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="V33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X33" s="4">
+      <c r="X33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="4">
         <v>89</v>
       </c>
-      <c r="Y33" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Z33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AA33" s="4" t="s">
+      <c r="AB33" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AB33" s="4" t="s">
+      <c r="AC33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AC33" s="4">
+      <c r="AD33" s="4">
         <v>89</v>
       </c>
-      <c r="AD33" s="4" t="s">
+      <c r="AE33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AE33" s="4" t="s">
+      <c r="AF33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AF33" s="4" t="s">
+      <c r="AG33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AG33" s="4" t="s">
+      <c r="AH33" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>163</v>
       </c>
@@ -8815,95 +8912,98 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="H34" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="N34" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>38</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S34" s="4" t="s">
+      <c r="T34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="T34" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="U34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X34" s="4">
+      <c r="X34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="4">
         <v>89</v>
       </c>
-      <c r="Y34" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="Z34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA34" s="4" t="s">
+      <c r="AB34" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AB34" s="4" t="s">
+      <c r="AC34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AC34" s="4">
+      <c r="AD34" s="4">
         <v>89</v>
       </c>
-      <c r="AD34" s="4" t="s">
+      <c r="AE34" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AE34" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="AF34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AG34" s="4" t="s">
+      <c r="AH34" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>165</v>
       </c>
@@ -8912,175 +9012,164 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="H35" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="P35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P35" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="Q35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="S35" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="T35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U35" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="V35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X35" s="4">
+      <c r="X35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="4">
         <v>89</v>
       </c>
-      <c r="Y35" s="4" t="s">
+      <c r="Z35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Z35" s="4" t="s">
+      <c r="AA35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA35" s="4" t="s">
+      <c r="AB35" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AB35" s="4" t="s">
+      <c r="AC35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AC35" s="4">
+      <c r="AD35" s="4">
         <v>89</v>
       </c>
-      <c r="AD35" s="4" t="s">
+      <c r="AE35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AE35" s="4" t="s">
+      <c r="AF35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF35" s="4" t="s">
+      <c r="AG35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AG35" s="4" t="s">
+      <c r="AH35" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="B36" t="s">
-        <v>1576</v>
-      </c>
-      <c r="C36" s="78" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D36" s="78" t="s">
-        <v>1582</v>
-      </c>
-      <c r="M36" s="4"/>
+        <v>1578</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76" t="s">
+        <v>1580</v>
+      </c>
       <c r="N36" s="4"/>
-      <c r="R36" s="4"/>
+      <c r="O36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-      <c r="Y36" s="4"/>
+      <c r="U36" s="4"/>
       <c r="Z36" s="4"/>
-      <c r="AE36" s="4"/>
+      <c r="AA36" s="4"/>
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
-    </row>
-    <row r="37" spans="1:33" ht="25" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C37" s="78" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D37" s="78" t="s">
-        <v>1582</v>
-      </c>
-      <c r="R37" s="4"/>
+      <c r="AH36" s="4"/>
+    </row>
+    <row r="37" spans="1:34" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
-      <c r="Y37" s="4"/>
+      <c r="U37" s="4"/>
       <c r="Z37" s="4"/>
-      <c r="AE37" s="4"/>
+      <c r="AA37" s="4"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
-    </row>
-    <row r="38" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="R38" s="4"/>
+      <c r="AH37" s="4"/>
+    </row>
+    <row r="38" spans="1:34" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
-      <c r="Y38" s="4"/>
+      <c r="U38" s="4"/>
       <c r="Z38" s="4"/>
-      <c r="AE38" s="4"/>
+      <c r="AA38" s="4"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
-    </row>
-    <row r="39" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="R39" s="4"/>
+      <c r="AH38" s="4"/>
+    </row>
+    <row r="39" spans="1:34" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
-      <c r="Y39" s="4"/>
+      <c r="U39" s="4"/>
       <c r="Z39" s="4"/>
-      <c r="AE39" s="4"/>
+      <c r="AA39" s="4"/>
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
-    </row>
-    <row r="40" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="R40" s="4"/>
+      <c r="AH39" s="4"/>
+    </row>
+    <row r="40" spans="1:34" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
-      <c r="Y40" s="4"/>
+      <c r="U40" s="4"/>
       <c r="Z40" s="4"/>
-      <c r="AE40" s="4"/>
+      <c r="AA40" s="4"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" xr:uid="{5B62F831-60A7-42AD-B803-C0675CADF048}"/>
-    <hyperlink ref="C37" r:id="rId2" xr:uid="{32DE5327-D808-4C79-8610-19F3D3E733EC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21163,19 +21252,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>1106</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79" t="s">
         <v>1107</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
